--- a/biology/Botanique/Mayepea/Mayepea.xlsx
+++ b/biology/Botanique/Mayepea/Mayepea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayepea est un genre néotropical d'arbre, appartenant à la famille des Oleaceae (familles de l'olivier), et dont l'espèce type est Mayepea guianensis Aubl..
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mayepea est souvent considéré comme synonyme du genre Chionanthus L., cependant, l'analyse phylogénétique des Oleinae montre que genre Chionanthus est lourdement polyphylétique dans sa conception traditionnelle, et nécessitait de profonds changements taxonomiques[2],[3],[4],[5],[6].
-L'espèce type, Chionanthus virginicus L. 1753 est très isolée phylogénétiquement, de sorte que les espèces néotropicales doivent en être séparées dans les genres Mayepea Aubl. 1775 et Linociera Sw. ex Schreb. 1791[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayepea est souvent considéré comme synonyme du genre Chionanthus L., cependant, l'analyse phylogénétique des Oleinae montre que genre Chionanthus est lourdement polyphylétique dans sa conception traditionnelle, et nécessitait de profonds changements taxonomiques.
+L'espèce type, Chionanthus virginicus L. 1753 est très isolée phylogénétiquement, de sorte que les espèces néotropicales doivent en être séparées dans les genres Mayepea Aubl. 1775 et Linociera Sw. ex Schreb. 1791.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MAYEPEA. (Tabula 31.)
@@ -553,7 +569,7 @@
 PIST. Germen ovatum. Stylus nullus. Stigma craſſiuſculum, expanſum, concavum. 
 PER. Drupa, cortice ſucculento, unilocularis ; nux lignoſa, ovata, monoſperma. 
 SEM. unicum. »
-— Fusée-Aublet, 1775[7]</t>
+— Fusée-Aublet, 1775</t>
         </is>
       </c>
     </row>
@@ -581,9 +597,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 avril 2022)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 avril 2022) :
 Mayepea guianensis Aubl.
 Mayepea ramiflora (Roxb.) F. Muell.
 Mayepea verrucosa  
